--- a/Hito3/test1BlogUnab/Casos_de_prueba_para_Hito3.xlsx
+++ b/Hito3/test1BlogUnab/Casos_de_prueba_para_Hito3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.mazacerda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dacev\Desktop\sw1b\ICF232_202010_GRUPO3\Hito3\test1BlogUnab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE8E5BB-6C1F-4E57-9724-DB2951806913}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C9D720-BB82-4885-961D-F7E573FC6BE2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Casos de prueba" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Caso de Prueba</t>
   </si>
@@ -45,27 +45,12 @@
     <t>Daniel</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
     <t>Escenario Principal(2)</t>
   </si>
   <si>
-    <t>Daniel Paredes</t>
-  </si>
-  <si>
     <t>holahola1234</t>
   </si>
   <si>
-    <t>Daniel Acevedo</t>
-  </si>
-  <si>
     <t>No puedo acceder al sistema, usuario ya existe</t>
   </si>
   <si>
@@ -118,6 +103,12 @@
   </si>
   <si>
     <t>Noticia 2</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -430,6 +421,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -439,34 +458,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,106 +741,97 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="64.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="76.5703125" customWidth="1"/>
-    <col min="9" max="9" width="33.140625" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" customWidth="1"/>
+    <col min="5" max="5" width="64.5546875" customWidth="1"/>
+    <col min="6" max="6" width="0.21875" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" customWidth="1"/>
+    <col min="8" max="8" width="76.5546875" customWidth="1"/>
+    <col min="9" max="9" width="33.109375" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="17"/>
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="C2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="17">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -859,198 +841,198 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="26" t="s">
+      <c r="C9" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="23" t="s">
         <v>2</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
         <v>1</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>15</v>
+      <c r="B10" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="11"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>15</v>
+      <c r="B11" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="9"/>
-      <c r="E11" s="21" t="s">
-        <v>27</v>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="11"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
         <v>3</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>15</v>
+      <c r="B12" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="11"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>15</v>
+      <c r="B13" s="15" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="21" t="s">
-        <v>29</v>
+      <c r="E13" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="11"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
         <v>5</v>
       </c>
-      <c r="B14" s="18" t="s">
-        <v>19</v>
+      <c r="B14" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
         <v>6</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>19</v>
+      <c r="B15" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="E15" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
         <v>7</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>19</v>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+        <v>17</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
         <v>8</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>19</v>
+      <c r="B17" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
-      <c r="E17" s="21" t="s">
-        <v>29</v>
+      <c r="E17" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>9</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>23</v>
+      <c r="B18" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="19" t="s">
         <v>3</v>
       </c>
     </row>
